--- a/odm_quote_forecast/anchored_results/NPI PTI Quote Avgs.xlsx
+++ b/odm_quote_forecast/anchored_results/NPI PTI Quote Avgs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Pti Taiwan Forecast" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Site</t>
+          <t>ODM</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -458,6 +458,21 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Avg. of: BOM+MVA Cost</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Build Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>WW Start</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>WW End</t>
         </is>
       </c>
     </row>
@@ -472,7 +487,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,6 +500,17 @@
       </c>
       <c r="F2" t="n">
         <v>36.75600000000001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I2" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +524,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,6 +537,17 @@
       </c>
       <c r="F3" t="n">
         <v>26.87</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I3" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="4">
@@ -524,7 +561,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -537,6 +574,17 @@
       </c>
       <c r="F4" t="n">
         <v>69.96499999999999</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I4" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="5">
@@ -550,7 +598,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -563,6 +611,17 @@
       </c>
       <c r="F5" t="n">
         <v>42.08</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I5" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="6">
@@ -576,7 +635,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -589,6 +648,17 @@
       </c>
       <c r="F6" t="n">
         <v>53.06999999999999</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I6" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="7">
@@ -602,7 +672,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -615,6 +685,17 @@
       </c>
       <c r="F7" t="n">
         <v>58.67</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I7" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="8">
@@ -628,7 +709,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -641,6 +722,17 @@
       </c>
       <c r="F8" t="n">
         <v>108.97</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I8" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="9">
@@ -654,7 +746,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -667,6 +759,17 @@
       </c>
       <c r="F9" t="n">
         <v>104.48</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I9" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +783,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -693,6 +796,17 @@
       </c>
       <c r="F10" t="n">
         <v>28.114</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I10" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="11">
@@ -706,7 +820,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -719,6 +833,17 @@
       </c>
       <c r="F11" t="n">
         <v>45.31</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I11" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="12">
@@ -732,7 +857,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -745,6 +870,17 @@
       </c>
       <c r="F12" t="n">
         <v>38.89090909090909</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I12" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="13">
@@ -758,7 +894,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -771,6 +907,17 @@
       </c>
       <c r="F13" t="n">
         <v>60.322</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I13" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="14">
@@ -784,7 +931,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -797,6 +944,17 @@
       </c>
       <c r="F14" t="n">
         <v>61.34</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I14" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="15">
@@ -810,7 +968,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -823,6 +981,17 @@
       </c>
       <c r="F15" t="n">
         <v>55.515</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I15" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="16">
@@ -836,7 +1005,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -849,6 +1018,17 @@
       </c>
       <c r="F16" t="n">
         <v>49.555</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I16" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="17">
@@ -862,7 +1042,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -875,6 +1055,17 @@
       </c>
       <c r="F17" t="n">
         <v>60.6</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I17" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="18">
@@ -888,7 +1079,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -901,6 +1092,17 @@
       </c>
       <c r="F18" t="n">
         <v>48.2925</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I18" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="19">
@@ -914,7 +1116,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -927,6 +1129,17 @@
       </c>
       <c r="F19" t="n">
         <v>106.09</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I19" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="20">
@@ -940,7 +1153,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -953,6 +1166,17 @@
       </c>
       <c r="F20" t="n">
         <v>66</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I20" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="21">
@@ -966,7 +1190,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -979,6 +1203,17 @@
       </c>
       <c r="F21" t="n">
         <v>104.495</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I21" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="22">
@@ -992,7 +1227,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1005,6 +1240,17 @@
       </c>
       <c r="F22" t="n">
         <v>73.4988</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I22" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="23">
@@ -1018,7 +1264,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1031,6 +1277,17 @@
       </c>
       <c r="F23" t="n">
         <v>65.17</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I23" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="24">
@@ -1044,7 +1301,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1057,6 +1314,17 @@
       </c>
       <c r="F24" t="n">
         <v>97.68666666666667</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I24" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="25">
@@ -1070,7 +1338,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1083,6 +1351,17 @@
       </c>
       <c r="F25" t="n">
         <v>48.47</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I25" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="26">
@@ -1096,7 +1375,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1109,6 +1388,17 @@
       </c>
       <c r="F26" t="n">
         <v>124.1433333333333</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I26" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="27">
@@ -1122,7 +1412,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1135,6 +1425,17 @@
       </c>
       <c r="F27" t="n">
         <v>115.555</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I27" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="28">
@@ -1148,7 +1449,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1161,6 +1462,17 @@
       </c>
       <c r="F28" t="n">
         <v>99.88</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I28" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="29">
@@ -1174,7 +1486,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1187,6 +1499,17 @@
       </c>
       <c r="F29" t="n">
         <v>48.67999999999999</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I29" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="30">
@@ -1200,7 +1523,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1213,6 +1536,17 @@
       </c>
       <c r="F30" t="n">
         <v>138.75</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I30" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="31">
@@ -1226,7 +1560,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1239,6 +1573,17 @@
       </c>
       <c r="F31" t="n">
         <v>55.70000000000001</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I31" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="32">
@@ -1252,7 +1597,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1265,6 +1610,17 @@
       </c>
       <c r="F32" t="n">
         <v>97.50999999999999</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I32" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="33">
@@ -1278,7 +1634,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1291,6 +1647,17 @@
       </c>
       <c r="F33" t="n">
         <v>98.06</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I33" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="34">
@@ -1304,7 +1671,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1317,6 +1684,17 @@
       </c>
       <c r="F34" t="n">
         <v>111.61</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I34" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="35">
@@ -1330,7 +1708,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1343,6 +1721,17 @@
       </c>
       <c r="F35" t="n">
         <v>60.66</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I35" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="36">
@@ -1356,7 +1745,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1366,6 +1755,17 @@
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I36" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1378,7 +1778,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1391,6 +1791,17 @@
       </c>
       <c r="F37" t="n">
         <v>49.12</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I37" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="38">
@@ -1404,7 +1815,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1417,6 +1828,17 @@
       </c>
       <c r="F38" t="n">
         <v>60.13</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I38" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="39">
@@ -1430,7 +1852,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1443,6 +1865,17 @@
       </c>
       <c r="F39" t="n">
         <v>54.65</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I39" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="40">
@@ -1456,7 +1889,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1469,6 +1902,17 @@
       </c>
       <c r="F40" t="n">
         <v>9.91</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I40" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="41">
@@ -1482,7 +1926,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1495,6 +1939,17 @@
       </c>
       <c r="F41" t="n">
         <v>45.98</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I41" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="42">
@@ -1508,7 +1963,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1521,6 +1976,17 @@
       </c>
       <c r="F42" t="n">
         <v>110.21</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I42" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="43">
@@ -1534,7 +2000,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1547,6 +2013,17 @@
       </c>
       <c r="F43" t="n">
         <v>161.56</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I43" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="44">
@@ -1560,7 +2037,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1573,6 +2050,17 @@
       </c>
       <c r="F44" t="n">
         <v>78.21000000000001</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I44" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="45">
@@ -1586,7 +2074,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1599,6 +2087,17 @@
       </c>
       <c r="F45" t="n">
         <v>21.69</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I45" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="46">
@@ -1612,7 +2111,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1625,6 +2124,17 @@
       </c>
       <c r="F46" t="n">
         <v>21.64</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I46" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="47">
@@ -1638,7 +2148,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1651,6 +2161,17 @@
       </c>
       <c r="F47" t="n">
         <v>22.09</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I47" t="n">
+        <v>202253</v>
       </c>
     </row>
     <row r="48">
@@ -1664,7 +2185,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PTI HS</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1677,6 +2198,17 @@
       </c>
       <c r="F48" t="n">
         <v>104.53</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I48" t="n">
+        <v>202253</v>
       </c>
     </row>
   </sheetData>
